--- a/wetlands/src/VIBI-BigTrees/Load_VIBI_BigTrees_2023.xlsx
+++ b/wetlands/src/VIBI-BigTrees/Load_VIBI_BigTrees_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F240"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2940,20 +2940,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug25</t>
+          <t>CUVAWetlnd2023Jun29</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CUVAWetlnd135</t>
+          <t>CUVAWetlnd145</t>
         </is>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Platanus occidentalis</t>
+          <t>ACENEG</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F93">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ACENEG</t>
+          <t>POPDEL</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="F94">
-        <v>45</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="95">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="F95">
-        <v>53.7</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="96">
@@ -3042,11 +3042,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F96">
-        <v>65.7</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3070,11 +3070,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F97">
-        <v>80.59999999999999</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="98">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F98">
-        <v>45.6</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="99">
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3126,11 +3126,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F99">
-        <v>90.7</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="100">
@@ -3154,11 +3154,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F100">
-        <v>51.6</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -3182,11 +3182,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree3</t>
         </is>
       </c>
       <c r="F101">
-        <v>76.40000000000001</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102">
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3210,11 +3210,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Tree3</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F102">
-        <v>61</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="103">
@@ -3238,39 +3238,39 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F103">
-        <v>68.2</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jun29</t>
+          <t>CUVAWetlnd2023Jul07</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CUVAWetlnd145</t>
+          <t>CUVAWetlnd144</t>
         </is>
       </c>
       <c r="C104">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>SLXNIG</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F104">
-        <v>77.2</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="105">
@@ -3281,15 +3281,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CUVAWetlnd144</t>
+          <t>CUVAWetlnd156</t>
         </is>
       </c>
       <c r="C105">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>SLXNIG</t>
+          <t>ACESAC</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="F105">
-        <v>42.4</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="106">
@@ -3313,11 +3313,11 @@
         </is>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ACESAC</t>
+          <t>POPDEL</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="F106">
-        <v>49.3</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="107">
@@ -3350,11 +3350,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F107">
-        <v>58.3</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="108">
@@ -3378,11 +3378,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree3</t>
         </is>
       </c>
       <c r="F108">
-        <v>41.1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3406,11 +3406,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Tree3</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F109">
-        <v>47</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="110">
@@ -3434,11 +3434,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F110">
-        <v>54.8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111">
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3462,11 +3462,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F111">
-        <v>46</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="112">
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="F112">
-        <v>54.4</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="113">
@@ -3518,11 +3518,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F113">
-        <v>45.1</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="114">
@@ -3546,11 +3546,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree3</t>
         </is>
       </c>
       <c r="F114">
-        <v>47.5</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="115">
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Tree3</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F115">
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="F116">
-        <v>42.3</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="117">
@@ -3630,11 +3630,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F117">
-        <v>41.6</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="118">
@@ -3649,20 +3649,20 @@
         </is>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>ACESAC</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F118">
-        <v>49.3</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="119">
@@ -3677,11 +3677,11 @@
         </is>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ACESAC</t>
+          <t>POPDEL</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="F119">
-        <v>42.2</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="120">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3718,26 +3718,26 @@
         </is>
       </c>
       <c r="F120">
-        <v>74.90000000000001</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Jul10</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd142</t>
         </is>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>SLXALB</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="F121">
-        <v>49.8</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="122">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>SLXALB</t>
+          <t>ACESAC</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3774,7 +3774,7 @@
         </is>
       </c>
       <c r="F122">
-        <v>78.40000000000001</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="123">
@@ -3798,11 +3798,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F123">
-        <v>52.3</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="124">
@@ -3817,20 +3817,20 @@
         </is>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ACESAC</t>
+          <t>POPDEL</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F124">
-        <v>50.9</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="125">
@@ -3845,11 +3845,11 @@
         </is>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>ACESAC</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3858,26 +3858,26 @@
         </is>
       </c>
       <c r="F125">
-        <v>81.7</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul10</t>
+          <t>CUVAWetlnd2023Jul13</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CUVAWetlnd142</t>
+          <t>CUVAWetlnd130</t>
         </is>
       </c>
       <c r="C126">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ACESAC</t>
+          <t>STNDEAD</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="F126">
-        <v>57.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127">
@@ -3901,7 +3901,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="F127">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128">
@@ -3938,58 +3938,58 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F128">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul13</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CUVAWetlnd130</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>STNDEAD</t>
+          <t>Ulmus americana</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F129">
-        <v>43</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C130">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Quercus palustris</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3998,54 +3998,54 @@
         </is>
       </c>
       <c r="F130">
-        <v>40</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C131">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Acer rubrum</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F131">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C132">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Carya ovata</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4054,18 +4054,18 @@
         </is>
       </c>
       <c r="F132">
-        <v>73</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C133">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Acer rubrum</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4082,26 +4082,26 @@
         </is>
       </c>
       <c r="F133">
-        <v>45</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Quercus palustris</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4110,54 +4110,54 @@
         </is>
       </c>
       <c r="F134">
-        <v>44</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Quercus bicolor</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F135">
-        <v>41</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4166,46 +4166,46 @@
         </is>
       </c>
       <c r="F136">
-        <v>52</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F137">
-        <v>63</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C138">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4222,18 +4222,18 @@
         </is>
       </c>
       <c r="F138">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C139">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4250,18 +4250,18 @@
         </is>
       </c>
       <c r="F139">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C140">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4278,46 +4278,46 @@
         </is>
       </c>
       <c r="F140">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Tree4</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F141">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug01</t>
+          <t>CUVAWetlnd2023Sep07</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CUVAWetlnd136</t>
+          <t>CUVAWetlnd134</t>
         </is>
       </c>
       <c r="C142">
@@ -4325,27 +4325,27 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Platanus occidentalis</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Tree5</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F142">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C143">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Ulmus americana</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4362,54 +4362,54 @@
         </is>
       </c>
       <c r="F143">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F144">
-        <v>67</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Quercus macrocarpa</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4418,26 +4418,26 @@
         </is>
       </c>
       <c r="F145">
-        <v>110</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Platanus occidentalis</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4446,82 +4446,82 @@
         </is>
       </c>
       <c r="F146">
-        <v>350</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F147">
-        <v>57</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F148">
-        <v>62</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Quercus macrocarpa</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4530,82 +4530,82 @@
         </is>
       </c>
       <c r="F149">
-        <v>54</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F150">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F151">
-        <v>53</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4614,26 +4614,26 @@
         </is>
       </c>
       <c r="F152">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Quercus macrocarpa</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4642,26 +4642,26 @@
         </is>
       </c>
       <c r="F153">
-        <v>75</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4670,26 +4670,26 @@
         </is>
       </c>
       <c r="F154">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Salix amygdaloides</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4698,26 +4698,26 @@
         </is>
       </c>
       <c r="F155">
-        <v>335</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4726,54 +4726,54 @@
         </is>
       </c>
       <c r="F156">
-        <v>123</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F157">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd292</t>
         </is>
       </c>
       <c r="C158">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Salix amygdaloides</t>
+          <t>Standing dead</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="F158">
-        <v>107</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd294</t>
         </is>
       </c>
       <c r="C159">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4810,82 +4810,82 @@
         </is>
       </c>
       <c r="F159">
-        <v>92</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C160">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F160">
-        <v>57</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F161">
-        <v>74</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Quercus macrocarpa</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4894,82 +4894,82 @@
         </is>
       </c>
       <c r="F162">
-        <v>65</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C163">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F163">
-        <v>77</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C164">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Fraxinus pennsylvanica</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree3</t>
         </is>
       </c>
       <c r="F164">
-        <v>61</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C165">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4978,26 +4978,26 @@
         </is>
       </c>
       <c r="F165">
-        <v>50</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C166">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Platanus occidentalis</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5006,82 +5006,82 @@
         </is>
       </c>
       <c r="F166">
-        <v>229</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C167">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F167">
-        <v>66</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep18</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C168">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F168">
-        <v>56</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep18</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C169">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5090,26 +5090,26 @@
         </is>
       </c>
       <c r="F169">
-        <v>51</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep18</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C170">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5118,22 +5118,22 @@
         </is>
       </c>
       <c r="F170">
-        <v>78</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep18</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C171">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -5142,114 +5142,114 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F171">
-        <v>78</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep18</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C172">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Tree3</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F172">
-        <v>42</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C173">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Tree4</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F173">
-        <v>57</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C174">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Tree5</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F174">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C175">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5258,26 +5258,26 @@
         </is>
       </c>
       <c r="F175">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C176">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5286,54 +5286,54 @@
         </is>
       </c>
       <c r="F176">
-        <v>57</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C177">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Tree3</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F177">
-        <v>47</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C178">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5342,82 +5342,82 @@
         </is>
       </c>
       <c r="F178">
-        <v>93</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C179">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F179">
-        <v>52</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd146</t>
         </is>
       </c>
       <c r="C180">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Standing dead</t>
+          <t>Platanus occidentalis</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Tree3</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F180">
-        <v>68</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug16</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CUVAWetlnd137</t>
+          <t>CUVAWetlnd146</t>
         </is>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Acer saccharinum</t>
+          <t>Acer rubrum</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5426,50 +5426,50 @@
         </is>
       </c>
       <c r="F181">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug16</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CUVAWetlnd137</t>
+          <t>CUVAWetlnd149</t>
         </is>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Acer saccharinum</t>
+          <t>Salix nigra</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F182">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug25</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CUVAWetlnd131</t>
+          <t>CUVAWetlnd149</t>
         </is>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5482,1602 +5482,6 @@
         </is>
       </c>
       <c r="F183">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Aug25</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd135</t>
-        </is>
-      </c>
-      <c r="C184">
-        <v>6</v>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Platanus occidentalis</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F184">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Aug25</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd135</t>
-        </is>
-      </c>
-      <c r="C185">
-        <v>6</v>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Platanus occidentalis</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F185">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep05</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd155</t>
-        </is>
-      </c>
-      <c r="C186">
-        <v>2</v>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Ulmus americana</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F186">
-        <v>41.4</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep05</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd155</t>
-        </is>
-      </c>
-      <c r="C187">
-        <v>3</v>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Quercus palustris</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F187">
-        <v>53.1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep05</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd155</t>
-        </is>
-      </c>
-      <c r="C188">
-        <v>3</v>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Acer rubrum</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F188">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep05</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd155</t>
-        </is>
-      </c>
-      <c r="C189">
-        <v>4</v>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Carya ovata</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F189">
-        <v>42.9</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep05</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd155</t>
-        </is>
-      </c>
-      <c r="C190">
-        <v>6</v>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Acer rubrum</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F190">
-        <v>67.09999999999999</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep05</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd155</t>
-        </is>
-      </c>
-      <c r="C191">
-        <v>6</v>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Quercus palustris</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F191">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep05</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd155</t>
-        </is>
-      </c>
-      <c r="C192">
-        <v>10</v>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Quercus bicolor</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F192">
-        <v>67.8</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep06</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F193">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep06</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C194">
-        <v>2</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F194">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep06</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C195">
-        <v>3</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F195">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep06</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C196">
-        <v>3</v>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F196">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep06</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C197">
-        <v>3</v>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Tree3</t>
-        </is>
-      </c>
-      <c r="F197">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep06</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C198">
-        <v>4</v>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F198">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep07</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd134</t>
-        </is>
-      </c>
-      <c r="C199">
-        <v>3</v>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Platanus occidentalis</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F199">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Ulmus americana</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F200">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C201">
-        <v>2</v>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F201">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C202">
-        <v>2</v>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F202">
-        <v>73.40000000000001</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C203">
-        <v>4</v>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F203">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C204">
-        <v>4</v>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F204">
-        <v>40.3</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C205">
-        <v>4</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F205">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C206">
-        <v>5</v>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F206">
-        <v>74.7</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C207">
-        <v>5</v>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F207">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C208">
-        <v>6</v>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F208">
-        <v>76.40000000000001</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C209">
-        <v>7</v>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C210">
-        <v>7</v>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F210">
-        <v>71.7</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C211">
-        <v>8</v>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F211">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C212">
-        <v>9</v>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F212">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C213">
-        <v>10</v>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F213">
-        <v>64.09999999999999</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C214">
-        <v>10</v>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F214">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd292</t>
-        </is>
-      </c>
-      <c r="C215">
-        <v>4</v>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Standing dead</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F215">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd294</t>
-        </is>
-      </c>
-      <c r="C216">
-        <v>3</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Standing dead</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F216">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C217">
-        <v>7</v>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F217">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C218">
-        <v>7</v>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F218">
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C219">
-        <v>8</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F219">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C220">
-        <v>8</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F220">
-        <v>41.6</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C221">
-        <v>8</v>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Tree3</t>
-        </is>
-      </c>
-      <c r="F221">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C222">
-        <v>9</v>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F222">
-        <v>57.2</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C223">
-        <v>10</v>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F223">
-        <v>45.3</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C224">
-        <v>10</v>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F224">
-        <v>45.3</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep18</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C225">
-        <v>2</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F225">
-        <v>42.2</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep18</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C226">
-        <v>3</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F226">
-        <v>48.2</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep18</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C227">
-        <v>4</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F227">
-        <v>80.8</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep18</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C228">
-        <v>5</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Standing dead</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F228">
-        <v>48.9</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep18</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C229">
-        <v>5</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F229">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C230">
-        <v>6</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F230">
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C231">
-        <v>6</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F231">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C232">
-        <v>7</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F232">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C233">
-        <v>7</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F233">
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C234">
-        <v>7</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F234">
-        <v>41.6</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C235">
-        <v>8</v>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F235">
-        <v>75.40000000000001</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C236">
-        <v>8</v>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F236">
-        <v>46.9</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd146</t>
-        </is>
-      </c>
-      <c r="C237">
-        <v>4</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Platanus occidentalis</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F237">
-        <v>80.7</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd146</t>
-        </is>
-      </c>
-      <c r="C238">
-        <v>5</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Acer rubrum</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F238">
-        <v>52.7</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd149</t>
-        </is>
-      </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Salix nigra</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F239">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd149</t>
-        </is>
-      </c>
-      <c r="C240">
-        <v>2</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Salix nigra</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F240">
         <v>40.8</v>
       </c>
     </row>

--- a/wetlands/src/VIBI-BigTrees/Load_VIBI_BigTrees_2023.xlsx
+++ b/wetlands/src/VIBI-BigTrees/Load_VIBI_BigTrees_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2940,12 +2940,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jun29</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CUVAWetlnd145</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C93">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ACENEG</t>
+          <t>Ulmus americana</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2962,26 +2962,26 @@
         </is>
       </c>
       <c r="F93">
-        <v>45</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jun29</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CUVAWetlnd145</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Quercus palustris</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2990,18 +2990,18 @@
         </is>
       </c>
       <c r="F94">
-        <v>53.7</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jun29</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CUVAWetlnd145</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C95">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Acer rubrum</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3018,46 +3018,46 @@
         </is>
       </c>
       <c r="F95">
-        <v>65.7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jun29</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CUVAWetlnd145</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Carya ovata</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F96">
-        <v>80.59999999999999</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jun29</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CUVAWetlnd145</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C97">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Acer rubrum</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3074,18 +3074,18 @@
         </is>
       </c>
       <c r="F97">
-        <v>45.6</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jun29</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CUVAWetlnd145</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C98">
@@ -3093,35 +3093,35 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Quercus palustris</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F98">
-        <v>90.7</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jun29</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CUVAWetlnd145</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Quercus bicolor</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3130,82 +3130,82 @@
         </is>
       </c>
       <c r="F99">
-        <v>51.6</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jun29</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CUVAWetlnd145</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F100">
-        <v>76.40000000000001</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jun29</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CUVAWetlnd145</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Tree3</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F101">
-        <v>61</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jun29</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CUVAWetlnd145</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3214,26 +3214,26 @@
         </is>
       </c>
       <c r="F102">
-        <v>68.2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jun29</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CUVAWetlnd145</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C103">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3242,54 +3242,54 @@
         </is>
       </c>
       <c r="F103">
-        <v>77.2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CUVAWetlnd144</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C104">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SLXNIG</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree3</t>
         </is>
       </c>
       <c r="F104">
-        <v>42.4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ACESAC</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3298,26 +3298,26 @@
         </is>
       </c>
       <c r="F105">
-        <v>49.3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep07</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd134</t>
         </is>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Platanus occidentalis</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3326,46 +3326,46 @@
         </is>
       </c>
       <c r="F106">
-        <v>58.3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Ulmus americana</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F107">
-        <v>41.1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C108">
@@ -3373,35 +3373,35 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Tree3</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F108">
-        <v>47</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3410,46 +3410,46 @@
         </is>
       </c>
       <c r="F109">
-        <v>54.8</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F110">
-        <v>46</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C111">
@@ -3457,35 +3457,35 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F111">
-        <v>54.4</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3494,18 +3494,18 @@
         </is>
       </c>
       <c r="F112">
-        <v>45.1</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C113">
@@ -3513,27 +3513,27 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F113">
-        <v>47.5</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C114">
@@ -3541,27 +3541,27 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Tree3</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F114">
-        <v>42.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C115">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3578,18 +3578,18 @@
         </is>
       </c>
       <c r="F115">
-        <v>42.3</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C116">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3606,18 +3606,18 @@
         </is>
       </c>
       <c r="F116">
-        <v>41.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C117">
@@ -3625,27 +3625,27 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F117">
-        <v>49.3</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C118">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ACESAC</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3662,18 +3662,18 @@
         </is>
       </c>
       <c r="F118">
-        <v>42.2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C119">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3690,18 +3690,18 @@
         </is>
       </c>
       <c r="F119">
-        <v>74.90000000000001</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CUVAWetlnd156</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C120">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3718,54 +3718,54 @@
         </is>
       </c>
       <c r="F120">
-        <v>49.8</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul10</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CUVAWetlnd142</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>SLXALB</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F121">
-        <v>78.40000000000001</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul10</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CUVAWetlnd142</t>
+          <t>CUVAWetlnd292</t>
         </is>
       </c>
       <c r="C122">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ACESAC</t>
+          <t>Standing dead</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3774,54 +3774,54 @@
         </is>
       </c>
       <c r="F122">
-        <v>52.3</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul10</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CUVAWetlnd142</t>
+          <t>CUVAWetlnd294</t>
         </is>
       </c>
       <c r="C123">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ACESAC</t>
+          <t>Standing dead</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F123">
-        <v>50.9</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul10</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CUVAWetlnd142</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>POPDEL</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3830,18 +3830,18 @@
         </is>
       </c>
       <c r="F124">
-        <v>81.7</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul10</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CUVAWetlnd142</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C125">
@@ -3849,35 +3849,35 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ACESAC</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F125">
-        <v>57.8</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul13</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CUVAWetlnd130</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>STNDEAD</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3886,82 +3886,82 @@
         </is>
       </c>
       <c r="F126">
-        <v>67</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul13</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CUVAWetlnd130</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C127">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>STNDEAD</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F127">
-        <v>63</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Jul13</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CUVAWetlnd130</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>STNDEAD</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree3</t>
         </is>
       </c>
       <c r="F128">
-        <v>43</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep05</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CUVAWetlnd155</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3970,26 +3970,26 @@
         </is>
       </c>
       <c r="F129">
-        <v>41.4</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep05</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CUVAWetlnd155</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Quercus palustris</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3998,54 +3998,54 @@
         </is>
       </c>
       <c r="F130">
-        <v>53.1</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep05</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CUVAWetlnd155</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F131">
-        <v>41</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep05</t>
+          <t>CUVAWetlnd2023Sep18</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CUVAWetlnd155</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Carya ovata</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4054,26 +4054,26 @@
         </is>
       </c>
       <c r="F132">
-        <v>42.9</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep05</t>
+          <t>CUVAWetlnd2023Sep18</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CUVAWetlnd155</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4082,26 +4082,26 @@
         </is>
       </c>
       <c r="F133">
-        <v>67.09999999999999</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep05</t>
+          <t>CUVAWetlnd2023Sep18</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CUVAWetlnd155</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Quercus palustris</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4110,26 +4110,26 @@
         </is>
       </c>
       <c r="F134">
-        <v>60.4</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep05</t>
+          <t>CUVAWetlnd2023Sep18</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CUVAWetlnd155</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Quercus bicolor</t>
+          <t>Standing dead</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4138,22 +4138,22 @@
         </is>
       </c>
       <c r="F135">
-        <v>67.8</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep06</t>
+          <t>CUVAWetlnd2023Sep18</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CUVAWetlnd138</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4166,22 +4166,22 @@
         </is>
       </c>
       <c r="F136">
-        <v>42.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep06</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CUVAWetlnd138</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4194,22 +4194,22 @@
         </is>
       </c>
       <c r="F137">
-        <v>43.4</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep06</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CUVAWetlnd138</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4218,26 +4218,26 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Tree1</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F138">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep06</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CUVAWetlnd138</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4246,26 +4246,26 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F139">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep06</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CUVAWetlnd138</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4274,30 +4274,30 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Tree3</t>
+          <t>Tree2</t>
         </is>
       </c>
       <c r="F140">
-        <v>51</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep06</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CUVAWetlnd138</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Populus deltoides</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4306,26 +4306,26 @@
         </is>
       </c>
       <c r="F141">
-        <v>53</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep07</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CUVAWetlnd134</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Platanus occidentalis</t>
+          <t>Populus deltoides</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4334,26 +4334,26 @@
         </is>
       </c>
       <c r="F142">
-        <v>105</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep08</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CUVAWetlnd157</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
+          <t>Acer saccharinum</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4362,26 +4362,26 @@
         </is>
       </c>
       <c r="F143">
-        <v>52</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep08</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CUVAWetlnd157</t>
+          <t>CUVAWetlnd146</t>
         </is>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Acer saccharinum</t>
+          <t>Platanus occidentalis</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4390,26 +4390,26 @@
         </is>
       </c>
       <c r="F144">
-        <v>53.6</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep08</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CUVAWetlnd157</t>
+          <t>CUVAWetlnd146</t>
         </is>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Populus deltoides</t>
+          <t>Acer rubrum</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4418,26 +4418,26 @@
         </is>
       </c>
       <c r="F145">
-        <v>73.40000000000001</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep08</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CUVAWetlnd157</t>
+          <t>CUVAWetlnd149</t>
         </is>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Acer saccharinum</t>
+          <t>Salix nigra</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4446,1042 +4446,34 @@
         </is>
       </c>
       <c r="F146">
-        <v>41.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep08</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CUVAWetlnd157</t>
+          <t>CUVAWetlnd149</t>
         </is>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Acer saccharinum</t>
+          <t>Salix nigra</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Tree2</t>
+          <t>Tree1</t>
         </is>
       </c>
       <c r="F147">
-        <v>40.3</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C148">
-        <v>4</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F148">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C149">
-        <v>5</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F149">
-        <v>74.7</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C150">
-        <v>5</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F150">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C151">
-        <v>6</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F151">
-        <v>76.40000000000001</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C152">
-        <v>7</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C153">
-        <v>7</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F153">
-        <v>71.7</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C154">
-        <v>8</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F154">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C155">
-        <v>9</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F155">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C156">
-        <v>10</v>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F156">
-        <v>64.09999999999999</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep08</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd157</t>
-        </is>
-      </c>
-      <c r="C157">
-        <v>10</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F157">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd292</t>
-        </is>
-      </c>
-      <c r="C158">
-        <v>4</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Standing dead</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F158">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd294</t>
-        </is>
-      </c>
-      <c r="C159">
-        <v>3</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Standing dead</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F159">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C160">
-        <v>7</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F160">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C161">
-        <v>7</v>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F161">
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C162">
-        <v>8</v>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F162">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C163">
-        <v>8</v>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F163">
-        <v>41.6</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C164">
-        <v>8</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Tree3</t>
-        </is>
-      </c>
-      <c r="F164">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C165">
-        <v>9</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F165">
-        <v>57.2</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C166">
-        <v>10</v>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F166">
-        <v>45.3</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep13</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd138</t>
-        </is>
-      </c>
-      <c r="C167">
-        <v>10</v>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F167">
-        <v>45.3</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep18</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C168">
-        <v>2</v>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F168">
-        <v>42.2</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep18</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C169">
-        <v>3</v>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F169">
-        <v>48.2</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep18</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C170">
-        <v>4</v>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F170">
-        <v>80.8</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep18</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C171">
-        <v>5</v>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Standing dead</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F171">
-        <v>48.9</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep18</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C172">
-        <v>5</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F172">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C173">
-        <v>6</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F173">
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C174">
-        <v>6</v>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F174">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C175">
-        <v>7</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F175">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C176">
-        <v>7</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F176">
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C177">
-        <v>7</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F177">
-        <v>41.6</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C178">
-        <v>8</v>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F178">
-        <v>75.40000000000001</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd150</t>
-        </is>
-      </c>
-      <c r="C179">
-        <v>8</v>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F179">
-        <v>46.9</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd146</t>
-        </is>
-      </c>
-      <c r="C180">
-        <v>4</v>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Platanus occidentalis</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F180">
-        <v>80.7</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd146</t>
-        </is>
-      </c>
-      <c r="C181">
-        <v>5</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Acer rubrum</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F181">
-        <v>52.7</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd149</t>
-        </is>
-      </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Salix nigra</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F182">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd149</t>
-        </is>
-      </c>
-      <c r="C183">
-        <v>2</v>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Salix nigra</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F183">
         <v>40.8</v>
       </c>
     </row>

--- a/wetlands/src/VIBI-BigTrees/Load_VIBI_BigTrees_2023.xlsx
+++ b/wetlands/src/VIBI-BigTrees/Load_VIBI_BigTrees_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,11 +380,6 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TreeName</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>DBH</t>
         </is>
       </c>
@@ -408,12 +403,7 @@
           <t>Acer negundo</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>45</v>
       </c>
     </row>
@@ -436,12 +426,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>53.7</v>
       </c>
     </row>
@@ -464,12 +449,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F4">
+      <c r="E4">
         <v>65.7</v>
       </c>
     </row>
@@ -492,12 +472,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F5">
+      <c r="E5">
         <v>80.59999999999999</v>
       </c>
     </row>
@@ -520,12 +495,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F6">
+      <c r="E6">
         <v>45.6</v>
       </c>
     </row>
@@ -548,12 +518,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F7">
+      <c r="E7">
         <v>90.7</v>
       </c>
     </row>
@@ -576,12 +541,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F8">
+      <c r="E8">
         <v>51.6</v>
       </c>
     </row>
@@ -604,12 +564,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F9">
+      <c r="E9">
         <v>76.40000000000001</v>
       </c>
     </row>
@@ -632,12 +587,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Tree3</t>
-        </is>
-      </c>
-      <c r="F10">
+      <c r="E10">
         <v>61</v>
       </c>
     </row>
@@ -660,12 +610,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F11">
+      <c r="E11">
         <v>68.2</v>
       </c>
     </row>
@@ -688,12 +633,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F12">
+      <c r="E12">
         <v>77.2</v>
       </c>
     </row>
@@ -716,12 +656,7 @@
           <t>Salix nigra</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F13">
+      <c r="E13">
         <v>42.4</v>
       </c>
     </row>
@@ -744,12 +679,7 @@
           <t>Acer saccharinum</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F14">
+      <c r="E14">
         <v>49.3</v>
       </c>
     </row>
@@ -772,12 +702,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F15">
+      <c r="E15">
         <v>58.3</v>
       </c>
     </row>
@@ -800,12 +725,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F16">
+      <c r="E16">
         <v>41.1</v>
       </c>
     </row>
@@ -828,12 +748,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Tree3</t>
-        </is>
-      </c>
-      <c r="F17">
+      <c r="E17">
         <v>47</v>
       </c>
     </row>
@@ -856,12 +771,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F18">
+      <c r="E18">
         <v>54.8</v>
       </c>
     </row>
@@ -884,12 +794,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F19">
+      <c r="E19">
         <v>46</v>
       </c>
     </row>
@@ -912,12 +817,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F20">
+      <c r="E20">
         <v>54.4</v>
       </c>
     </row>
@@ -940,12 +840,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F21">
+      <c r="E21">
         <v>45.1</v>
       </c>
     </row>
@@ -968,12 +863,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F22">
+      <c r="E22">
         <v>47.5</v>
       </c>
     </row>
@@ -996,12 +886,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Tree3</t>
-        </is>
-      </c>
-      <c r="F23">
+      <c r="E23">
         <v>42.3</v>
       </c>
     </row>
@@ -1024,12 +909,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F24">
+      <c r="E24">
         <v>42.3</v>
       </c>
     </row>
@@ -1052,12 +932,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F25">
+      <c r="E25">
         <v>41.6</v>
       </c>
     </row>
@@ -1080,12 +955,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F26">
+      <c r="E26">
         <v>49.3</v>
       </c>
     </row>
@@ -1108,12 +978,7 @@
           <t>Acer saccharinum</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F27">
+      <c r="E27">
         <v>42.2</v>
       </c>
     </row>
@@ -1136,12 +1001,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F28">
+      <c r="E28">
         <v>74.90000000000001</v>
       </c>
     </row>
@@ -1164,12 +1024,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F29">
+      <c r="E29">
         <v>49.8</v>
       </c>
     </row>
@@ -1192,12 +1047,7 @@
           <t>Salix alba</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F30">
+      <c r="E30">
         <v>78.40000000000001</v>
       </c>
     </row>
@@ -1220,12 +1070,7 @@
           <t>Acer saccharinum</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F31">
+      <c r="E31">
         <v>52.3</v>
       </c>
     </row>
@@ -1248,12 +1093,7 @@
           <t>Acer saccharinum</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F32">
+      <c r="E32">
         <v>50.9</v>
       </c>
     </row>
@@ -1276,12 +1116,7 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F33">
+      <c r="E33">
         <v>81.7</v>
       </c>
     </row>
@@ -1304,12 +1139,7 @@
           <t>Acer saccharinum</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F34">
+      <c r="E34">
         <v>57.8</v>
       </c>
     </row>
@@ -1332,12 +1162,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F35">
+      <c r="E35">
         <v>67</v>
       </c>
     </row>
@@ -1360,12 +1185,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F36">
+      <c r="E36">
         <v>63</v>
       </c>
     </row>
@@ -1388,12 +1208,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F37">
+      <c r="E37">
         <v>43</v>
       </c>
     </row>
@@ -1416,12 +1231,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F38">
+      <c r="E38">
         <v>40</v>
       </c>
     </row>
@@ -1444,12 +1254,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F39">
+      <c r="E39">
         <v>60</v>
       </c>
     </row>
@@ -1472,12 +1277,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F40">
+      <c r="E40">
         <v>73</v>
       </c>
     </row>
@@ -1500,12 +1300,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F41">
+      <c r="E41">
         <v>45</v>
       </c>
     </row>
@@ -1528,12 +1323,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F42">
+      <c r="E42">
         <v>44</v>
       </c>
     </row>
@@ -1556,12 +1346,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F43">
+      <c r="E43">
         <v>41</v>
       </c>
     </row>
@@ -1584,12 +1369,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F44">
+      <c r="E44">
         <v>52</v>
       </c>
     </row>
@@ -1612,12 +1392,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F45">
+      <c r="E45">
         <v>63</v>
       </c>
     </row>
@@ -1640,12 +1415,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F46">
+      <c r="E46">
         <v>48</v>
       </c>
     </row>
@@ -1668,12 +1438,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F47">
+      <c r="E47">
         <v>59</v>
       </c>
     </row>
@@ -1696,12 +1461,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Tree3</t>
-        </is>
-      </c>
-      <c r="F48">
+      <c r="E48">
         <v>86</v>
       </c>
     </row>
@@ -1724,12 +1484,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Tree4</t>
-        </is>
-      </c>
-      <c r="F49">
+      <c r="E49">
         <v>41</v>
       </c>
     </row>
@@ -1752,12 +1507,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Tree5</t>
-        </is>
-      </c>
-      <c r="F50">
+      <c r="E50">
         <v>46</v>
       </c>
     </row>
@@ -1780,12 +1530,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F51">
+      <c r="E51">
         <v>75</v>
       </c>
     </row>
@@ -1808,12 +1553,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F52">
+      <c r="E52">
         <v>67</v>
       </c>
     </row>
@@ -1836,12 +1576,7 @@
           <t>Quercus macrocarpa</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F53">
+      <c r="E53">
         <v>110</v>
       </c>
     </row>
@@ -1864,12 +1599,7 @@
           <t>Platanus occidentalis</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F54">
+      <c r="E54">
         <v>350</v>
       </c>
     </row>
@@ -1892,12 +1622,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F55">
+      <c r="E55">
         <v>57</v>
       </c>
     </row>
@@ -1920,12 +1645,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F56">
+      <c r="E56">
         <v>62</v>
       </c>
     </row>
@@ -1948,12 +1668,7 @@
           <t>Quercus macrocarpa</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F57">
+      <c r="E57">
         <v>54</v>
       </c>
     </row>
@@ -1976,12 +1691,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F58">
+      <c r="E58">
         <v>99</v>
       </c>
     </row>
@@ -2004,12 +1714,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F59">
+      <c r="E59">
         <v>53</v>
       </c>
     </row>
@@ -2032,12 +1737,7 @@
           <t>Ulmus americana</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F60">
+      <c r="E60">
         <v>78</v>
       </c>
     </row>
@@ -2060,12 +1760,7 @@
           <t>Quercus macrocarpa</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F61">
+      <c r="E61">
         <v>75</v>
       </c>
     </row>
@@ -2088,12 +1783,7 @@
           <t>Ulmus americana</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F62">
+      <c r="E62">
         <v>65</v>
       </c>
     </row>
@@ -2116,12 +1806,7 @@
           <t>Salix amygdaloides</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F63">
+      <c r="E63">
         <v>335</v>
       </c>
     </row>
@@ -2144,12 +1829,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F64">
+      <c r="E64">
         <v>123</v>
       </c>
     </row>
@@ -2172,12 +1852,7 @@
           <t>Ulmus americana</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F65">
+      <c r="E65">
         <v>50</v>
       </c>
     </row>
@@ -2200,12 +1875,7 @@
           <t>Salix amygdaloides</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F66">
+      <c r="E66">
         <v>107</v>
       </c>
     </row>
@@ -2228,12 +1898,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F67">
+      <c r="E67">
         <v>92</v>
       </c>
     </row>
@@ -2256,12 +1921,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F68">
+      <c r="E68">
         <v>57</v>
       </c>
     </row>
@@ -2284,12 +1944,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F69">
+      <c r="E69">
         <v>74</v>
       </c>
     </row>
@@ -2312,12 +1967,7 @@
           <t>Quercus macrocarpa</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F70">
+      <c r="E70">
         <v>65</v>
       </c>
     </row>
@@ -2340,12 +1990,7 @@
           <t>Ulmus americana</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F71">
+      <c r="E71">
         <v>77</v>
       </c>
     </row>
@@ -2368,12 +2013,7 @@
           <t>Fraxinus pennsylvanica</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F72">
+      <c r="E72">
         <v>61</v>
       </c>
     </row>
@@ -2396,12 +2036,7 @@
           <t>Ulmus americana</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F73">
+      <c r="E73">
         <v>50</v>
       </c>
     </row>
@@ -2424,12 +2059,7 @@
           <t>Platanus occidentalis</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F74">
+      <c r="E74">
         <v>229</v>
       </c>
     </row>
@@ -2452,12 +2082,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F75">
+      <c r="E75">
         <v>66</v>
       </c>
     </row>
@@ -2480,12 +2105,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F76">
+      <c r="E76">
         <v>56</v>
       </c>
     </row>
@@ -2508,12 +2128,7 @@
           <t>Ulmus americana</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F77">
+      <c r="E77">
         <v>51</v>
       </c>
     </row>
@@ -2536,12 +2151,7 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F78">
+      <c r="E78">
         <v>78</v>
       </c>
     </row>
@@ -2564,13 +2174,8 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F79">
-        <v>78</v>
+      <c r="E79">
+        <v>42</v>
       </c>
     </row>
     <row r="80">
@@ -2592,13 +2197,8 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Tree3</t>
-        </is>
-      </c>
-      <c r="F80">
-        <v>42</v>
+      <c r="E80">
+        <v>57</v>
       </c>
     </row>
     <row r="81">
@@ -2620,13 +2220,8 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Tree4</t>
-        </is>
-      </c>
-      <c r="F81">
-        <v>57</v>
+      <c r="E81">
+        <v>89</v>
       </c>
     </row>
     <row r="82">
@@ -2641,20 +2236,15 @@
         </is>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Standing dead</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Tree5</t>
-        </is>
-      </c>
-      <c r="F82">
-        <v>89</v>
+          <t>Ulmus americana</t>
+        </is>
+      </c>
+      <c r="E82">
+        <v>55</v>
       </c>
     </row>
     <row r="83">
@@ -2676,13 +2266,8 @@
           <t>Ulmus americana</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F83">
-        <v>55</v>
+      <c r="E83">
+        <v>57</v>
       </c>
     </row>
     <row r="84">
@@ -2704,13 +2289,8 @@
           <t>Ulmus americana</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F84">
-        <v>57</v>
+      <c r="E84">
+        <v>47</v>
       </c>
     </row>
     <row r="85">
@@ -2729,16 +2309,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Tree3</t>
-        </is>
-      </c>
-      <c r="F85">
-        <v>47</v>
+          <t>Standing dead</t>
+        </is>
+      </c>
+      <c r="E85">
+        <v>93</v>
       </c>
     </row>
     <row r="86">
@@ -2760,13 +2335,8 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F86">
-        <v>93</v>
+      <c r="E86">
+        <v>52</v>
       </c>
     </row>
     <row r="87">
@@ -2788,41 +2358,31 @@
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F87">
-        <v>52</v>
+      <c r="E87">
+        <v>68</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug03</t>
+          <t>CUVAWetlnd2023Aug16</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CUVAWetlnd139</t>
+          <t>CUVAWetlnd137</t>
         </is>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Standing dead</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Tree3</t>
-        </is>
-      </c>
-      <c r="F88">
-        <v>68</v>
+          <t>Acer saccharinum</t>
+        </is>
+      </c>
+      <c r="E88">
+        <v>52.5</v>
       </c>
     </row>
     <row r="89">
@@ -2844,41 +2404,31 @@
           <t>Acer saccharinum</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F89">
-        <v>52.5</v>
+      <c r="E89">
+        <v>42</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug16</t>
+          <t>CUVAWetlnd2023Aug25</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CUVAWetlnd137</t>
+          <t>CUVAWetlnd131</t>
         </is>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F90">
-        <v>42</v>
+          <t>Salix nigra</t>
+        </is>
+      </c>
+      <c r="E90">
+        <v>46.5</v>
       </c>
     </row>
     <row r="91">
@@ -2889,52 +2439,42 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CUVAWetlnd131</t>
+          <t>CUVAWetlnd135</t>
         </is>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Salix nigra</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F91">
-        <v>46.5</v>
+          <t>Platanus occidentalis</t>
+        </is>
+      </c>
+      <c r="E91">
+        <v>50</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Aug25</t>
+          <t>CUVAWetlnd2023Sep05</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CUVAWetlnd135</t>
+          <t>CUVAWetlnd155</t>
         </is>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Platanus occidentalis</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F92">
-        <v>50</v>
+          <t>Ulmus americana</t>
+        </is>
+      </c>
+      <c r="E92">
+        <v>41.4</v>
       </c>
     </row>
     <row r="93">
@@ -2949,20 +2489,15 @@
         </is>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F93">
-        <v>41.4</v>
+          <t>Quercus palustris</t>
+        </is>
+      </c>
+      <c r="E93">
+        <v>53.1</v>
       </c>
     </row>
     <row r="94">
@@ -2981,16 +2516,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Quercus palustris</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F94">
-        <v>53.1</v>
+          <t>Acer rubrum</t>
+        </is>
+      </c>
+      <c r="E94">
+        <v>41</v>
       </c>
     </row>
     <row r="95">
@@ -3005,20 +2535,15 @@
         </is>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F95">
-        <v>41</v>
+          <t>Carya ovata</t>
+        </is>
+      </c>
+      <c r="E95">
+        <v>42.9</v>
       </c>
     </row>
     <row r="96">
@@ -3033,20 +2558,15 @@
         </is>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Carya ovata</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F96">
-        <v>42.9</v>
+          <t>Acer rubrum</t>
+        </is>
+      </c>
+      <c r="E96">
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -3065,16 +2585,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F97">
-        <v>67.09999999999999</v>
+          <t>Quercus palustris</t>
+        </is>
+      </c>
+      <c r="E97">
+        <v>60.4</v>
       </c>
     </row>
     <row r="98">
@@ -3089,48 +2604,38 @@
         </is>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Quercus palustris</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F98">
-        <v>60.4</v>
+          <t>Quercus bicolor</t>
+        </is>
+      </c>
+      <c r="E98">
+        <v>67.8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep05</t>
+          <t>CUVAWetlnd2023Sep06</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CUVAWetlnd155</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Quercus bicolor</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F99">
-        <v>67.8</v>
+          <t>Populus deltoides</t>
+        </is>
+      </c>
+      <c r="E99">
+        <v>42.5</v>
       </c>
     </row>
     <row r="100">
@@ -3145,20 +2650,15 @@
         </is>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F100">
-        <v>42.5</v>
+      <c r="E100">
+        <v>43.4</v>
       </c>
     </row>
     <row r="101">
@@ -3173,20 +2673,15 @@
         </is>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F101">
-        <v>43.4</v>
+      <c r="E101">
+        <v>65</v>
       </c>
     </row>
     <row r="102">
@@ -3208,13 +2703,8 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F102">
-        <v>65</v>
+      <c r="E102">
+        <v>44</v>
       </c>
     </row>
     <row r="103">
@@ -3236,13 +2726,8 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F103">
-        <v>44</v>
+      <c r="E103">
+        <v>51</v>
       </c>
     </row>
     <row r="104">
@@ -3257,76 +2742,61 @@
         </is>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Tree3</t>
-        </is>
-      </c>
-      <c r="F104">
-        <v>51</v>
+      <c r="E104">
+        <v>53</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep06</t>
+          <t>CUVAWetlnd2023Sep07</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CUVAWetlnd138</t>
+          <t>CUVAWetlnd134</t>
         </is>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F105">
-        <v>53</v>
+          <t>Platanus occidentalis</t>
+        </is>
+      </c>
+      <c r="E105">
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep07</t>
+          <t>CUVAWetlnd2023Sep08</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CUVAWetlnd134</t>
+          <t>CUVAWetlnd157</t>
         </is>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Platanus occidentalis</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F106">
-        <v>105</v>
+          <t>Ulmus americana</t>
+        </is>
+      </c>
+      <c r="E106">
+        <v>52</v>
       </c>
     </row>
     <row r="107">
@@ -3341,20 +2811,15 @@
         </is>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Ulmus americana</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F107">
-        <v>52</v>
+          <t>Acer saccharinum</t>
+        </is>
+      </c>
+      <c r="E107">
+        <v>53.6</v>
       </c>
     </row>
     <row r="108">
@@ -3373,16 +2838,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F108">
-        <v>53.6</v>
+          <t>Populus deltoides</t>
+        </is>
+      </c>
+      <c r="E108">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="109">
@@ -3397,20 +2857,15 @@
         </is>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F109">
-        <v>73.40000000000001</v>
+          <t>Acer saccharinum</t>
+        </is>
+      </c>
+      <c r="E109">
+        <v>41.5</v>
       </c>
     </row>
     <row r="110">
@@ -3432,13 +2887,8 @@
           <t>Acer saccharinum</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F110">
-        <v>41.5</v>
+      <c r="E110">
+        <v>40.3</v>
       </c>
     </row>
     <row r="111">
@@ -3457,16 +2907,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F111">
-        <v>40.3</v>
+          <t>Populus deltoides</t>
+        </is>
+      </c>
+      <c r="E111">
+        <v>50.4</v>
       </c>
     </row>
     <row r="112">
@@ -3481,20 +2926,15 @@
         </is>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F112">
-        <v>50.4</v>
+      <c r="E112">
+        <v>74.7</v>
       </c>
     </row>
     <row r="113">
@@ -3516,13 +2956,8 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F113">
-        <v>74.7</v>
+      <c r="E113">
+        <v>63</v>
       </c>
     </row>
     <row r="114">
@@ -3537,20 +2972,15 @@
         </is>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F114">
-        <v>63</v>
+      <c r="E114">
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="115">
@@ -3565,20 +2995,15 @@
         </is>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F115">
-        <v>76.40000000000001</v>
+          <t>Acer saccharinum</t>
+        </is>
+      </c>
+      <c r="E115">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3597,16 +3022,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F116">
-        <v>1</v>
+          <t>Populus deltoides</t>
+        </is>
+      </c>
+      <c r="E116">
+        <v>71.7</v>
       </c>
     </row>
     <row r="117">
@@ -3621,20 +3041,15 @@
         </is>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F117">
-        <v>71.7</v>
+      <c r="E117">
+        <v>86</v>
       </c>
     </row>
     <row r="118">
@@ -3649,20 +3064,15 @@
         </is>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F118">
-        <v>86</v>
+          <t>Acer saccharinum</t>
+        </is>
+      </c>
+      <c r="E118">
+        <v>45</v>
       </c>
     </row>
     <row r="119">
@@ -3677,20 +3087,15 @@
         </is>
       </c>
       <c r="C119">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F119">
-        <v>45</v>
+          <t>Populus deltoides</t>
+        </is>
+      </c>
+      <c r="E119">
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="120">
@@ -3712,41 +3117,31 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F120">
-        <v>64.09999999999999</v>
+      <c r="E120">
+        <v>72</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep08</t>
+          <t>CUVAWetlnd2023Sep13</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CUVAWetlnd157</t>
+          <t>CUVAWetlnd292</t>
         </is>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F121">
-        <v>72</v>
+          <t>Standing dead</t>
+        </is>
+      </c>
+      <c r="E121">
+        <v>44.3</v>
       </c>
     </row>
     <row r="122">
@@ -3757,24 +3152,19 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CUVAWetlnd292</t>
+          <t>CUVAWetlnd294</t>
         </is>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>Standing dead</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F122">
-        <v>44.3</v>
+      <c r="E122">
+        <v>50.2</v>
       </c>
     </row>
     <row r="123">
@@ -3785,24 +3175,19 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CUVAWetlnd294</t>
+          <t>CUVAWetlnd138</t>
         </is>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Standing dead</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F123">
-        <v>50.2</v>
+          <t>Populus deltoides</t>
+        </is>
+      </c>
+      <c r="E123">
+        <v>49.9</v>
       </c>
     </row>
     <row r="124">
@@ -3824,13 +3209,8 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F124">
-        <v>49.9</v>
+      <c r="E124">
+        <v>61.5</v>
       </c>
     </row>
     <row r="125">
@@ -3845,20 +3225,15 @@
         </is>
       </c>
       <c r="C125">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F125">
-        <v>61.5</v>
+      <c r="E125">
+        <v>44.3</v>
       </c>
     </row>
     <row r="126">
@@ -3880,13 +3255,8 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F126">
-        <v>44.3</v>
+      <c r="E126">
+        <v>41.6</v>
       </c>
     </row>
     <row r="127">
@@ -3908,13 +3278,8 @@
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F127">
-        <v>41.6</v>
+      <c r="E127">
+        <v>42.3</v>
       </c>
     </row>
     <row r="128">
@@ -3929,20 +3294,15 @@
         </is>
       </c>
       <c r="C128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Tree3</t>
-        </is>
-      </c>
-      <c r="F128">
-        <v>42.3</v>
+      <c r="E128">
+        <v>57.2</v>
       </c>
     </row>
     <row r="129">
@@ -3957,76 +3317,61 @@
         </is>
       </c>
       <c r="C129">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F129">
-        <v>57.2</v>
+      <c r="E129">
+        <v>45.3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep13</t>
+          <t>CUVAWetlnd2023Sep18</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CUVAWetlnd138</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C130">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F130">
-        <v>45.3</v>
+          <t>Acer saccharinum</t>
+        </is>
+      </c>
+      <c r="E130">
+        <v>42.2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep13</t>
+          <t>CUVAWetlnd2023Sep18</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CUVAWetlnd138</t>
+          <t>CUVAWetlnd150</t>
         </is>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F131">
-        <v>45.3</v>
+      <c r="E131">
+        <v>48.2</v>
       </c>
     </row>
     <row r="132">
@@ -4041,20 +3386,15 @@
         </is>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F132">
-        <v>42.2</v>
+          <t>Populus deltoides</t>
+        </is>
+      </c>
+      <c r="E132">
+        <v>80.8</v>
       </c>
     </row>
     <row r="133">
@@ -4069,20 +3409,15 @@
         </is>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F133">
-        <v>48.2</v>
+          <t>Standing dead</t>
+        </is>
+      </c>
+      <c r="E133">
+        <v>48.9</v>
       </c>
     </row>
     <row r="134">
@@ -4097,26 +3432,21 @@
         </is>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F134">
-        <v>80.8</v>
+      <c r="E134">
+        <v>57.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep18</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4125,26 +3455,21 @@
         </is>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Standing dead</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F135">
-        <v>48.9</v>
+          <t>Populus deltoides</t>
+        </is>
+      </c>
+      <c r="E135">
+        <v>58.9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CUVAWetlnd2023Sep18</t>
+          <t>CUVAWetlnd2023Sep26</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4153,20 +3478,15 @@
         </is>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F136">
-        <v>57.5</v>
+      <c r="E136">
+        <v>59</v>
       </c>
     </row>
     <row r="137">
@@ -4181,20 +3501,15 @@
         </is>
       </c>
       <c r="C137">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F137">
-        <v>58.9</v>
+      <c r="E137">
+        <v>45</v>
       </c>
     </row>
     <row r="138">
@@ -4209,20 +3524,15 @@
         </is>
       </c>
       <c r="C138">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F138">
-        <v>59</v>
+      <c r="E138">
+        <v>68.8</v>
       </c>
     </row>
     <row r="139">
@@ -4241,16 +3551,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F139">
-        <v>45</v>
+          <t>Acer saccharinum</t>
+        </is>
+      </c>
+      <c r="E139">
+        <v>41.6</v>
       </c>
     </row>
     <row r="140">
@@ -4265,20 +3570,15 @@
         </is>
       </c>
       <c r="C140">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>Populus deltoides</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Tree2</t>
-        </is>
-      </c>
-      <c r="F140">
-        <v>68.8</v>
+      <c r="E140">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="141">
@@ -4293,20 +3593,15 @@
         </is>
       </c>
       <c r="C141">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>Acer saccharinum</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F141">
-        <v>41.6</v>
+      <c r="E141">
+        <v>46.9</v>
       </c>
     </row>
     <row r="142">
@@ -4317,24 +3612,19 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CUVAWetlnd150</t>
+          <t>CUVAWetlnd146</t>
         </is>
       </c>
       <c r="C142">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Populus deltoides</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F142">
-        <v>75.40000000000001</v>
+          <t>Platanus occidentalis</t>
+        </is>
+      </c>
+      <c r="E142">
+        <v>80.7</v>
       </c>
     </row>
     <row r="143">
@@ -4345,24 +3635,19 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CUVAWetlnd150</t>
+          <t>CUVAWetlnd146</t>
         </is>
       </c>
       <c r="C143">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Acer saccharinum</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F143">
-        <v>46.9</v>
+          <t>Acer rubrum</t>
+        </is>
+      </c>
+      <c r="E143">
+        <v>52.7</v>
       </c>
     </row>
     <row r="144">
@@ -4373,24 +3658,19 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CUVAWetlnd146</t>
+          <t>CUVAWetlnd149</t>
         </is>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Platanus occidentalis</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F144">
-        <v>80.7</v>
+          <t>Salix nigra</t>
+        </is>
+      </c>
+      <c r="E144">
+        <v>52</v>
       </c>
     </row>
     <row r="145">
@@ -4401,79 +3681,18 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CUVAWetlnd146</t>
+          <t>CUVAWetlnd149</t>
         </is>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F145">
-        <v>52.7</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd149</t>
-        </is>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
           <t>Salix nigra</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F146">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd2023Sep26</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>CUVAWetlnd149</t>
-        </is>
-      </c>
-      <c r="C147">
-        <v>2</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Salix nigra</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Tree1</t>
-        </is>
-      </c>
-      <c r="F147">
+      <c r="E145">
         <v>40.8</v>
       </c>
     </row>
